--- a/tutorials/linearfit/linearfit_solution.xlsx
+++ b/tutorials/linearfit/linearfit_solution.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20860" windowHeight="26720"/>
+    <workbookView xWindow="18640" yWindow="0" windowWidth="22740" windowHeight="26660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -444,7 +444,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -528,7 +528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
@@ -1158,11 +1158,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2144385112"/>
-        <c:axId val="-2144395368"/>
+        <c:axId val="-2128047880"/>
+        <c:axId val="-2128042088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2144385112"/>
+        <c:axId val="-2128047880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30.0"/>
@@ -1208,12 +1208,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144395368"/>
+        <c:crossAx val="-2128042088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2144395368"/>
+        <c:axId val="-2128042088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1259,7 +1259,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144385112"/>
+        <c:crossAx val="-2128047880"/>
         <c:crossesAt val="-80.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1667,7 +1667,7 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1678,7 +1678,7 @@
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.1640625" customWidth="1"/>
     <col min="9" max="11" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
